--- a/Ai job!.xlsx
+++ b/Ai job!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02335DFB-472B-4375-8651-A8734ACB2874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07CB3B25-0296-40EF-B1AA-E748E60670D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{5A492B3B-13F7-4135-885D-270006E2E265}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4568" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="68">
   <si>
     <t>Job_Title</t>
   </si>
@@ -737,7 +737,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -745,6 +745,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1640,115 +1641,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Decline</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HR Manager</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operations Manager</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sales Manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$B$5:$B$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A7D-4B04-8F38-08C9509A9BA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Growth</c:v>
+                  <c:v>Stable</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1802,115 +1695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet4!$C$5:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000D-4A7D-4B04-8F38-08C9509A9BA5}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet4!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Stable</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:tint val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln w="25400">
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet4!$A$5:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HR Manager</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operations Manager</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sales Manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet4!$D$5:$D$15</c:f>
+              <c:f>Sheet4!$B$5:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1949,7 +1734,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000E-4A7D-4B04-8F38-08C9509A9BA5}"/>
+              <c16:uniqueId val="{00000000-4A7D-4B04-8F38-08C9509A9BA5}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4596,7 +4381,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" sz="1400" b="1" baseline="0"/>
-              <a:t> Adoption Level by Copany size</a:t>
+              <a:t> Adoption Level by Company size</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" sz="1400" b="1"/>
           </a:p>
@@ -19928,7 +19713,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74586447-93F7-4EA5-9810-200A4724F247}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:E15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
@@ -19955,8 +19740,8 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="4">
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -20003,13 +19788,7 @@
   <colFields count="1">
     <field x="9"/>
   </colFields>
-  <colItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="2">
     <i>
       <x v="2"/>
     </i>
@@ -20666,8 +20445,8 @@
   <data>
     <tabular pivotCacheId="780782070">
       <items count="3">
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="0"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -21056,7 +20835,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8880BB02-3473-46F6-A46A-A313BEAC6F84}">
-  <dimension ref="A3:E15"/>
+  <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -21066,12 +20845,12 @@
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -21079,208 +20858,136 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
-      </c>
-      <c r="D5">
+      <c r="B5" s="5">
         <v>15</v>
       </c>
-      <c r="E5">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>19</v>
-      </c>
-      <c r="C6">
-        <v>14</v>
-      </c>
-      <c r="D6">
+      <c r="B6" s="5">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>22</v>
-      </c>
-      <c r="D7">
+      <c r="B7" s="5">
         <v>17</v>
       </c>
-      <c r="E7">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" s="5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B8">
-        <v>22</v>
-      </c>
-      <c r="C8">
-        <v>14</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="5">
         <v>21</v>
       </c>
-      <c r="E8">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C8" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
-        <v>23</v>
-      </c>
-      <c r="C9">
-        <v>11</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="5">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B10">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>19</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="5">
         <v>18</v>
       </c>
-      <c r="E10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>15</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="5">
+        <v>14</v>
+      </c>
+      <c r="C11" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B12">
-        <v>16</v>
-      </c>
-      <c r="C12">
-        <v>19</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="5">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>16</v>
-      </c>
-      <c r="D13">
+      <c r="B13" s="5">
         <v>13</v>
       </c>
-      <c r="E13">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C13" s="5">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>21</v>
-      </c>
-      <c r="C14">
-        <v>19</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="5">
+        <v>14</v>
+      </c>
+      <c r="C14" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B15">
-        <v>169</v>
-      </c>
-      <c r="C15">
-        <v>169</v>
-      </c>
-      <c r="D15">
+      <c r="B15" s="5">
         <v>162</v>
       </c>
-      <c r="E15">
-        <v>500</v>
+      <c r="C15" s="5">
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/Ai job!.xlsx
+++ b/Ai job!.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{07CB3B25-0296-40EF-B1AA-E748E60670D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1DA6B323-9EDA-4589-950A-59C25EB40D4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{5A492B3B-13F7-4135-885D-270006E2E265}"/>
   </bookViews>
@@ -22,6 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="Slicer_AI_Adoption_Level1">#N/A</definedName>
+    <definedName name="Slicer_Industry">#N/A</definedName>
     <definedName name="Slicer_Job_Growth1">#N/A</definedName>
     <definedName name="Slicer_Job_Type1">#N/A</definedName>
   </definedNames>
@@ -36,6 +37,7 @@
         <x14:slicerCache r:id="rId9"/>
         <x14:slicerCache r:id="rId10"/>
         <x14:slicerCache r:id="rId11"/>
+        <x14:slicerCache r:id="rId12"/>
       </x14:slicerCaches>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -46,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4566" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4562" uniqueCount="68">
   <si>
     <t>Job_Title</t>
   </si>
@@ -1624,9 +1626,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="5.4240485564304462E-2"/>
-          <c:y val="0.15277777777777779"/>
-          <c:w val="0.92047475470524864"/>
-          <c:h val="0.60621099445902582"/>
+          <c:y val="0.11696916263845397"/>
+          <c:w val="0.8834018756695261"/>
+          <c:h val="0.61135885041396854"/>
         </c:manualLayout>
       </c:layout>
       <c:areaChart>
@@ -1641,14 +1643,16 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Stable</c:v>
+                  <c:v>Growth</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3"/>
+              <a:schemeClr val="accent3">
+                <a:shade val="76000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln w="25400">
               <a:noFill/>
@@ -1700,6 +1704,114 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4A7D-4B04-8F38-08C9509A9BA5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Stable</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:tint val="77000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>AI Researcher</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Cybersecurity Analyst</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Data Scientist</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>HR Manager</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Marketing Specialist</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Operations Manager</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Product Manager</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Sales Manager</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Software Engineer</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>UX Designer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$C$5:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="1">
@@ -1734,7 +1846,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4A7D-4B04-8F38-08C9509A9BA5}"/>
+              <c16:uniqueId val="{00000003-C09B-4A8B-8706-93414DDE2A6F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2416,9 +2528,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="76000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2506,115 +2616,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-360D-4425-B742-E822FAC40913}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet5!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Remote</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:tint val="77000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet5!$A$5:$A$15</c:f>
-              <c:strCache>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>HR Manager</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Operations Manager</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Sales Manager</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet5!$C$5:$C$15</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0;[Red]"$"#,##0</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1724968</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3110585</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3047404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3095510</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2265132</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1836405</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2015178</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2795094</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1494060</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1630895</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A0EC-47A5-9B9D-9E2BE0107A01}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3763,6 +3764,286 @@
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="19"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="20"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="21"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="22"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="23"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent3"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
       <c:layout/>
@@ -3779,16 +4060,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education</c:v>
+                  <c:v>Energy</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="58000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent3"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3798,9 +4077,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet10!$A$5:$A$12</c:f>
+              <c:f>Sheet10!$A$5:$A$11</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>AI Researcher</c:v>
                 </c:pt>
@@ -3817,9 +4096,6 @@
                   <c:v>Product Manager</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>UX Designer</c:v>
                 </c:pt>
               </c:strCache>
@@ -3827,30 +4103,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet10!$B$5:$B$12</c:f>
+              <c:f>Sheet10!$B$5:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>7</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3858,279 +4131,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-CB7C-4471-A6B2-20277A94A165}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Finance</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:shade val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet10!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$C$5:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CB7C-4471-A6B2-20277A94A165}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$D$3:$D$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Healthcare</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:tint val="86000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet10!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$D$5:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-CB7C-4471-A6B2-20277A94A165}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet10!$E$3:$E$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Technology</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3">
-                <a:tint val="58000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet10!$A$5:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>AI Researcher</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Cybersecurity Analyst</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Data Scientist</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Marketing Specialist</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Product Manager</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Software Engineer</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>UX Designer</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet10!$E$5:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-CB7C-4471-A6B2-20277A94A165}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4205,6 +4205,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6971,6 +6985,61 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B94B8B2-DC6E-4A94-B926-53456648A042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3600450" y="3238500"/>
+          <a:ext cx="2009775" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -7496,51 +7565,79 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>6915150</xdr:colOff>
+      <xdr:colOff>6934199</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>8924925</xdr:colOff>
+      <xdr:colOff>8905874</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC2FBAB2-BD42-129A-5459-CFE145A463C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6915150" y="3248025"/>
-          <a:ext cx="2009775" cy="2000250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="3" name="Industry">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1FC4173-0EF6-49FD-8DA3-D86E770540FD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2010/slicer">
+              <sle:slicer xmlns:sle="http://schemas.microsoft.com/office/drawing/2010/slicer" name="Industry"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6934199" y="3267075"/>
+              <a:ext cx="1971675" cy="2000250"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
+If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -19713,7 +19810,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{74586447-93F7-4EA5-9810-200A4724F247}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="11">
@@ -19741,7 +19838,7 @@
     <pivotField axis="axisCol" dataField="1" showAll="0">
       <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item x="2"/>
         <item t="default"/>
       </items>
@@ -19788,7 +19885,10 @@
   <colFields count="1">
     <field x="9"/>
   </colFields>
-  <colItems count="2">
+  <colItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
     <i>
       <x v="2"/>
     </i>
@@ -19851,7 +19951,7 @@
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4B3BDC99-2AA5-4873-9368-82D4622CE225}" name="PivotTable26" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="12">
-  <location ref="A3:D15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
@@ -19879,7 +19979,7 @@
     <pivotField axis="axisCol" showAll="0">
       <items count="4">
         <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="0"/>
         <item h="1" x="2"/>
         <item t="default"/>
       </items>
@@ -19927,12 +20027,9 @@
   <colFields count="1">
     <field x="8"/>
   </colFields>
-  <colItems count="3">
+  <colItems count="2">
     <i>
       <x/>
-    </i>
-    <i>
-      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -20143,7 +20240,7 @@
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D4EA41B6-716D-4803-958B-5C92C7ED7751}" name="PivotTable29" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
-  <location ref="A3:F12" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A3:C11" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField axis="axisRow" showAll="0">
       <items count="12">
@@ -20163,14 +20260,14 @@
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
       <items count="12">
-        <item x="3"/>
-        <item h="1" x="9"/>
+        <item h="1" x="3"/>
+        <item x="9"/>
         <item h="1" x="0"/>
-        <item x="4"/>
-        <item x="8"/>
+        <item h="1" x="4"/>
+        <item h="1" x="8"/>
         <item h="1" x="7"/>
         <item h="1" x="2"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item h="1" x="6"/>
         <item h="1" x="5"/>
         <item h="1" x="10"/>
@@ -20182,8 +20279,8 @@
     <pivotField dataField="1" showAll="0">
       <items count="5">
         <item x="2"/>
-        <item x="1"/>
-        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
         <item h="1" x="3"/>
         <item t="default"/>
       </items>
@@ -20197,7 +20294,7 @@
   <rowFields count="1">
     <field x="0"/>
   </rowFields>
-  <rowItems count="8">
+  <rowItems count="7">
     <i>
       <x/>
     </i>
@@ -20214,9 +20311,6 @@
       <x v="6"/>
     </i>
     <i>
-      <x v="8"/>
-    </i>
-    <i>
       <x v="9"/>
     </i>
     <i t="grand">
@@ -20226,18 +20320,9 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="5">
+  <colItems count="2">
     <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="7"/>
+      <x v="1"/>
     </i>
     <i t="grand">
       <x/>
@@ -20246,7 +20331,7 @@
   <dataFields count="1">
     <dataField name="Count of AI_Adoption_Level" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <chartFormats count="15">
+  <chartFormats count="20">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
@@ -20424,6 +20509,66 @@
         </references>
       </pivotArea>
     </chartFormat>
+    <chartFormat chart="9" format="19" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="20" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="21" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="22" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="9" format="23" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="1" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
   </chartFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -20446,7 +20591,7 @@
     <tabular pivotCacheId="780782070">
       <items count="3">
         <i x="1"/>
-        <i x="0"/>
+        <i x="0" s="1"/>
         <i x="2" s="1"/>
       </items>
     </tabular>
@@ -20463,7 +20608,7 @@
     <tabular pivotCacheId="1998621223">
       <items count="3">
         <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="0"/>
         <i x="2" nd="1"/>
       </items>
     </tabular>
@@ -20485,9 +20630,39 @@
     <tabular pivotCacheId="1998621223">
       <items count="4">
         <i x="2" s="1"/>
-        <i x="1" s="1"/>
-        <i x="0" s="1"/>
+        <i x="1"/>
+        <i x="0"/>
         <i x="3" nd="1"/>
+      </items>
+    </tabular>
+  </data>
+  <extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{470722E0-AACD-4C17-9CDC-17EF765DBC7E}">
+      <x15:slicerCacheHideItemsWithNoData/>
+    </x:ext>
+  </extLst>
+</slicerCacheDefinition>
+</file>
+
+<file path=xl/slicerCaches/slicerCache4.xml><?xml version="1.0" encoding="utf-8"?>
+<slicerCacheDefinition xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x xr10" name="Slicer_Industry" xr10:uid="{95E77492-28F5-417B-A145-80C264E17F33}" sourceName="Industry">
+  <pivotTables>
+    <pivotTable tabId="11" name="PivotTable29"/>
+  </pivotTables>
+  <data>
+    <tabular pivotCacheId="1998621223">
+      <items count="11">
+        <i x="3"/>
+        <i x="9" s="1"/>
+        <i x="0"/>
+        <i x="4"/>
+        <i x="8"/>
+        <i x="7"/>
+        <i x="2"/>
+        <i x="1"/>
+        <i x="6"/>
+        <i x="5"/>
+        <i x="10" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20504,6 +20679,7 @@
   <slicer name="Job Growth 1" xr10:uid="{0DDF0F23-1342-4E96-A58C-1BC9E36DEA3B}" cache="Slicer_Job_Growth1" caption="Job Growth" showCaption="0" style="SlicerStyleLight3" rowHeight="241300"/>
   <slicer name="Job Type 1" xr10:uid="{DE66B074-1849-4747-9C86-7DC5E8DD2646}" cache="Slicer_Job_Type1" caption="Job Type" showCaption="0" style="SlicerStyleLight3" rowHeight="241300"/>
   <slicer name="AI_Adoption_Level 1" xr10:uid="{8981C3D0-D9BA-490F-B4BC-64D846F773A7}" cache="Slicer_AI_Adoption_Level1" caption="AI_Adoption_Level" showCaption="0" style="SlicerStyleOther1" rowHeight="241300"/>
+  <slicer name="Industry" xr10:uid="{585C7737-C05D-42FB-BD03-F33F4446CFF4}" cache="Slicer_Industry" caption="Industry" columnCount="2" style="SlicerStyleOther1" rowHeight="241300"/>
 </slicers>
 </file>
 
@@ -20835,7 +21011,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8880BB02-3473-46F6-A46A-A313BEAC6F84}">
-  <dimension ref="A3:C15"/>
+  <dimension ref="A3:D15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
@@ -20845,12 +21021,11 @@
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>62</v>
       </c>
@@ -20858,136 +21033,172 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
       <c r="B5" s="5">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="5">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="5">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C6" s="5">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="5">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B7" s="5">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C7" s="5">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C8" s="5">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8" s="5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="5">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C9" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
       <c r="B10" s="5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5">
         <v>18</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10" s="5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B13" s="5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C13" s="5">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" s="5">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="5">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C14" s="5">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="5">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
       <c r="B15" s="5">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C15" s="5">
         <v>162</v>
+      </c>
+      <c r="D15" s="5">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -20997,7 +21208,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{409CAB23-80D2-4811-9215-4FB774A938C5}">
-  <dimension ref="A3:D15"/>
+  <dimension ref="A3:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
@@ -21007,11 +21218,10 @@
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>64</v>
       </c>
@@ -21019,7 +21229,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
@@ -21027,13 +21237,10 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
@@ -21041,13 +21248,10 @@
         <v>3149785</v>
       </c>
       <c r="C5" s="4">
-        <v>1724968</v>
-      </c>
-      <c r="D5" s="4">
-        <v>4874753</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3149785</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
@@ -21055,13 +21259,10 @@
         <v>1808017</v>
       </c>
       <c r="C6" s="4">
-        <v>3110585</v>
-      </c>
-      <c r="D6" s="4">
-        <v>4918602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1808017</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
@@ -21069,13 +21270,10 @@
         <v>2624401</v>
       </c>
       <c r="C7" s="4">
-        <v>3047404</v>
-      </c>
-      <c r="D7" s="4">
-        <v>5671805</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2624401</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -21083,13 +21281,10 @@
         <v>1991846</v>
       </c>
       <c r="C8" s="4">
-        <v>3095510</v>
-      </c>
-      <c r="D8" s="4">
-        <v>5087356</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1991846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>19</v>
       </c>
@@ -21097,13 +21292,10 @@
         <v>2101005</v>
       </c>
       <c r="C9" s="4">
-        <v>2265132</v>
-      </c>
-      <c r="D9" s="4">
-        <v>4366137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2101005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>54</v>
       </c>
@@ -21111,13 +21303,10 @@
         <v>2428833</v>
       </c>
       <c r="C10" s="4">
-        <v>1836405</v>
-      </c>
-      <c r="D10" s="4">
-        <v>4265238</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2428833</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>47</v>
       </c>
@@ -21125,13 +21314,10 @@
         <v>1526129</v>
       </c>
       <c r="C11" s="4">
-        <v>2015178</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3541307</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1526129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -21139,13 +21325,10 @@
         <v>1758311</v>
       </c>
       <c r="C12" s="4">
-        <v>2795094</v>
-      </c>
-      <c r="D12" s="4">
-        <v>4553405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1758311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>49</v>
       </c>
@@ -21153,13 +21336,10 @@
         <v>1970054</v>
       </c>
       <c r="C13" s="4">
-        <v>1494060</v>
-      </c>
-      <c r="D13" s="4">
-        <v>3464114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1970054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
@@ -21167,13 +21347,10 @@
         <v>3237600</v>
       </c>
       <c r="C14" s="4">
-        <v>1630895</v>
-      </c>
-      <c r="D14" s="4">
-        <v>4868495</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3237600</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>61</v>
       </c>
@@ -21181,10 +21358,7 @@
         <v>22595981</v>
       </c>
       <c r="C15" s="4">
-        <v>23015231</v>
-      </c>
-      <c r="D15" s="4">
-        <v>45611212</v>
+        <v>22595981</v>
       </c>
     </row>
   </sheetData>
@@ -21253,29 +21427,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39533F4D-876E-4F2C-B04C-A6D22CE77A42}">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>65</v>
       </c>
@@ -21283,188 +21456,97 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
-      </c>
-      <c r="F5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B6">
-        <v>7</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="5">
         <v>2</v>
       </c>
-      <c r="D6">
-        <v>8</v>
-      </c>
-      <c r="E6">
-        <v>6</v>
-      </c>
-      <c r="F6">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>4</v>
-      </c>
-      <c r="D7">
-        <v>3</v>
-      </c>
-      <c r="E7">
-        <v>10</v>
-      </c>
-      <c r="F7">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B8">
-        <v>4</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-      <c r="E8">
-        <v>5</v>
-      </c>
-      <c r="F8">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B9">
-        <v>5</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="5">
         <v>3</v>
       </c>
-      <c r="E9">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B10">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5">
         <v>2</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
-        <v>4</v>
-      </c>
-      <c r="E10">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C10" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
+        <v>61</v>
+      </c>
+      <c r="B11" s="5">
         <v>10</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
-        <v>5</v>
-      </c>
-      <c r="E11">
-        <v>4</v>
-      </c>
-      <c r="F11">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12">
-        <v>43</v>
-      </c>
-      <c r="C12">
-        <v>32</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>145</v>
+      <c r="C11" s="5">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -37535,7 +37617,7 @@
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="A2" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
